--- a/Data/Tuomo_Fasta_MM-Kisaveikkaus_2022.xlsx
+++ b/Data/Tuomo_Fasta_MM-Kisaveikkaus_2022.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="88">
   <si>
     <t xml:space="preserve">MM-KISAVEIKKAUS 2022</t>
   </si>
@@ -127,7 +127,7 @@
     <t xml:space="preserve">Iran</t>
   </si>
   <si>
-    <t xml:space="preserve">Brasiloa</t>
+    <t xml:space="preserve">Brasilia</t>
   </si>
   <si>
     <t xml:space="preserve">Senegal</t>
@@ -242,9 +242,6 @@
   </si>
   <si>
     <t xml:space="preserve">Ghana</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brasilia</t>
   </si>
   <si>
     <t xml:space="preserve">Serbia</t>
@@ -655,10 +652,10 @@
   <dimension ref="A1:V126"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Q11" activeCellId="0" sqref="Q11"/>
+      <selection pane="topLeft" activeCell="Q7" activeCellId="0" sqref="Q7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="9.09"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="25.63"/>
@@ -1210,13 +1207,13 @@
         <v>44889</v>
       </c>
       <c r="C21" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="D21" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="E21" s="15" t="s">
         <v>67</v>
-      </c>
-      <c r="D21" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="E21" s="15" t="s">
-        <v>68</v>
       </c>
       <c r="F21" s="18" t="n">
         <v>3</v>
@@ -1554,7 +1551,7 @@
         <v>17</v>
       </c>
       <c r="E34" s="15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F34" s="18" t="n">
         <v>1</v>
@@ -1600,7 +1597,7 @@
         <v>44893</v>
       </c>
       <c r="C36" s="15" t="s">
-        <v>67</v>
+        <v>28</v>
       </c>
       <c r="D36" s="17" t="s">
         <v>17</v>
@@ -2016,7 +2013,7 @@
         <v>44897</v>
       </c>
       <c r="C52" s="15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D52" s="17" t="s">
         <v>17</v>
@@ -2048,7 +2045,7 @@
         <v>17</v>
       </c>
       <c r="E53" s="15" t="s">
-        <v>67</v>
+        <v>28</v>
       </c>
       <c r="F53" s="18" t="n">
         <v>0</v>
@@ -2079,10 +2076,10 @@
     </row>
     <row r="59" s="20" customFormat="true" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C59" s="21" t="s">
         <v>69</v>
-      </c>
-      <c r="C59" s="21" t="s">
-        <v>70</v>
       </c>
       <c r="F59" s="22" t="n">
         <v>11</v>
@@ -2092,7 +2089,7 @@
     </row>
     <row r="60" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C60" s="25" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F60" s="2"/>
     </row>
@@ -2102,7 +2099,7 @@
     </row>
     <row r="62" customFormat="false" ht="18.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="26" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B62" s="26"/>
       <c r="C62" s="21"/>
@@ -2121,7 +2118,7 @@
     </row>
     <row r="64" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="28" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B64" s="28"/>
       <c r="F64" s="2"/>
@@ -2130,14 +2127,14 @@
     </row>
     <row r="65" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="28" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B65" s="28"/>
       <c r="J65" s="15"/>
     </row>
     <row r="66" customFormat="false" ht="18.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="28" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B66" s="28"/>
       <c r="F66" s="21"/>
@@ -2152,28 +2149,28 @@
     </row>
     <row r="68" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="28" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B68" s="28"/>
       <c r="J68" s="15"/>
     </row>
     <row r="69" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="28" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B69" s="28"/>
       <c r="J69" s="15"/>
     </row>
     <row r="70" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="28" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B70" s="28"/>
       <c r="J70" s="15"/>
     </row>
     <row r="71" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="28" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B71" s="28"/>
       <c r="J71" s="15"/>
@@ -2185,7 +2182,7 @@
     </row>
     <row r="73" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="28" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B73" s="28"/>
       <c r="J73" s="15"/>
@@ -2197,7 +2194,7 @@
     </row>
     <row r="75" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="28" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B75" s="28"/>
       <c r="J75" s="15"/>
@@ -2209,7 +2206,7 @@
     </row>
     <row r="77" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="28" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B77" s="28"/>
       <c r="I77" s="29"/>
@@ -2222,7 +2219,7 @@
     </row>
     <row r="79" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="28" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B79" s="28"/>
       <c r="J79" s="15"/>
@@ -2234,14 +2231,14 @@
     </row>
     <row r="81" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="28" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B81" s="28"/>
       <c r="J81" s="15"/>
     </row>
     <row r="82" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="29" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B82" s="29"/>
     </row>
@@ -2250,12 +2247,12 @@
     </row>
     <row r="84" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B84" s="3"/>
       <c r="C84" s="30"/>
       <c r="D84" s="30" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E84" s="30"/>
       <c r="J84" s="15"/>
@@ -2270,7 +2267,7 @@
     </row>
     <row r="86" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B86" s="3"/>
     </row>
@@ -2353,7 +2350,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -2376,7 +2373,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
